--- a/Dokumentacja/lista zadan.xlsx
+++ b/Dokumentacja/lista zadan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="10680" windowHeight="9795"/>
+    <workbookView xWindow="480" yWindow="48" windowWidth="10680" windowHeight="9792"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Zadanie</t>
   </si>
@@ -64,6 +64,21 @@
   </si>
   <si>
     <t>usuwanie playlisty</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>RWD</t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>Dodawanie news</t>
   </si>
 </sst>
 </file>
@@ -160,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,6 +187,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -466,15 +482,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="A14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="42" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="29.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="42" customHeight="1">
@@ -503,7 +519,9 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
@@ -511,7 +529,9 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
@@ -521,7 +541,9 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="42" customHeight="1">
       <c r="A6" s="4" t="s">
@@ -559,7 +581,9 @@
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
@@ -575,7 +599,9 @@
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
@@ -585,7 +611,29 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="42" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="42" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -599,7 +647,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -611,7 +659,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
